--- a/SchedulingData/dynamic12/pso/scheduling2_18.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>208.08</v>
+        <v>204.5</v>
       </c>
       <c r="D2" t="n">
-        <v>267.22</v>
+        <v>250.94</v>
       </c>
       <c r="E2" t="n">
-        <v>14.748</v>
+        <v>15.576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>267.22</v>
+        <v>221.28</v>
       </c>
       <c r="D3" t="n">
-        <v>306.84</v>
+        <v>266.18</v>
       </c>
       <c r="E3" t="n">
-        <v>12.416</v>
+        <v>12.072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>238.9</v>
+        <v>223.74</v>
       </c>
       <c r="D4" t="n">
-        <v>293.54</v>
+        <v>293.1</v>
       </c>
       <c r="E4" t="n">
-        <v>11.916</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="5">
@@ -523,93 +523,93 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>230.26</v>
+        <v>255.42</v>
       </c>
       <c r="D5" t="n">
-        <v>304.86</v>
+        <v>303.86</v>
       </c>
       <c r="E5" t="n">
-        <v>14.624</v>
+        <v>13.264</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>206.9</v>
+        <v>233.4</v>
       </c>
       <c r="D6" t="n">
-        <v>264.28</v>
+        <v>298.14</v>
       </c>
       <c r="E6" t="n">
-        <v>12.752</v>
+        <v>12.836</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>306.84</v>
+        <v>250.94</v>
       </c>
       <c r="D7" t="n">
-        <v>362.94</v>
+        <v>299.86</v>
       </c>
       <c r="E7" t="n">
-        <v>9.896000000000001</v>
+        <v>12.804</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>304.86</v>
+        <v>293.1</v>
       </c>
       <c r="D8" t="n">
-        <v>356.76</v>
+        <v>334.9</v>
       </c>
       <c r="E8" t="n">
-        <v>11.544</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>362.94</v>
+        <v>233.6</v>
       </c>
       <c r="D9" t="n">
-        <v>414.48</v>
+        <v>286.1</v>
       </c>
       <c r="E9" t="n">
-        <v>6.872</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="10">
@@ -618,169 +618,169 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>356.76</v>
+        <v>303.86</v>
       </c>
       <c r="D10" t="n">
-        <v>418.38</v>
+        <v>349.88</v>
       </c>
       <c r="E10" t="n">
-        <v>8.472</v>
+        <v>9.792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>418.38</v>
+        <v>286.1</v>
       </c>
       <c r="D11" t="n">
-        <v>462.8</v>
+        <v>334.02</v>
       </c>
       <c r="E11" t="n">
-        <v>6.14</v>
+        <v>9.368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>250.9</v>
+        <v>298.14</v>
       </c>
       <c r="D12" t="n">
-        <v>325.26</v>
+        <v>339.68</v>
       </c>
       <c r="E12" t="n">
-        <v>11.084</v>
+        <v>9.811999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>264.28</v>
+        <v>334.9</v>
       </c>
       <c r="D13" t="n">
-        <v>317.18</v>
+        <v>404.56</v>
       </c>
       <c r="E13" t="n">
-        <v>10.592</v>
+        <v>6.904</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>247.56</v>
+        <v>299.86</v>
       </c>
       <c r="D14" t="n">
-        <v>289.66</v>
+        <v>347.36</v>
       </c>
       <c r="E14" t="n">
-        <v>11.824</v>
+        <v>9.683999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>325.26</v>
+        <v>339.68</v>
       </c>
       <c r="D15" t="n">
-        <v>389.32</v>
+        <v>377.58</v>
       </c>
       <c r="E15" t="n">
-        <v>7.288</v>
+        <v>7.652</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>389.32</v>
+        <v>377.58</v>
       </c>
       <c r="D16" t="n">
-        <v>452.02</v>
+        <v>424.58</v>
       </c>
       <c r="E16" t="n">
-        <v>3.648</v>
+        <v>4.572</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>317.18</v>
+        <v>424.58</v>
       </c>
       <c r="D17" t="n">
-        <v>386.98</v>
+        <v>479</v>
       </c>
       <c r="E17" t="n">
-        <v>6.752</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>414.48</v>
+        <v>347.36</v>
       </c>
       <c r="D18" t="n">
-        <v>459.64</v>
+        <v>389.08</v>
       </c>
       <c r="E18" t="n">
-        <v>4.496</v>
+        <v>7.132</v>
       </c>
     </row>
     <row r="19">
@@ -789,74 +789,74 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>293.54</v>
+        <v>389.08</v>
       </c>
       <c r="D19" t="n">
-        <v>342.88</v>
+        <v>434.68</v>
       </c>
       <c r="E19" t="n">
-        <v>8.612</v>
+        <v>4.712</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>289.66</v>
+        <v>266.18</v>
       </c>
       <c r="D20" t="n">
-        <v>363.62</v>
+        <v>352.98</v>
       </c>
       <c r="E20" t="n">
-        <v>8.548</v>
+        <v>8.992000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>386.98</v>
+        <v>404.56</v>
       </c>
       <c r="D21" t="n">
-        <v>453.58</v>
+        <v>467.06</v>
       </c>
       <c r="E21" t="n">
-        <v>3.672</v>
+        <v>4.744</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>342.88</v>
+        <v>352.98</v>
       </c>
       <c r="D22" t="n">
-        <v>393.98</v>
+        <v>401.48</v>
       </c>
       <c r="E22" t="n">
-        <v>6.132</v>
+        <v>5.272</v>
       </c>
     </row>
     <row r="23">
@@ -865,74 +865,93 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>462.8</v>
+        <v>349.88</v>
       </c>
       <c r="D23" t="n">
-        <v>515.5</v>
+        <v>411.88</v>
       </c>
       <c r="E23" t="n">
-        <v>3.98</v>
+        <v>6.712</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>363.62</v>
+        <v>411.88</v>
       </c>
       <c r="D24" t="n">
-        <v>421.92</v>
+        <v>459.78</v>
       </c>
       <c r="E24" t="n">
-        <v>4.828</v>
+        <v>3.052</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>393.98</v>
+        <v>334.02</v>
       </c>
       <c r="D25" t="n">
-        <v>446.38</v>
+        <v>384.4</v>
       </c>
       <c r="E25" t="n">
-        <v>3.012</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>421.92</v>
+        <v>401.48</v>
       </c>
       <c r="D26" t="n">
-        <v>481.92</v>
+        <v>480.8</v>
       </c>
       <c r="E26" t="n">
-        <v>2.408</v>
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>pond49</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>384.4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>451.22</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.368</v>
       </c>
     </row>
   </sheetData>
